--- a/sex_before_layout.xlsx
+++ b/sex_before_layout.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="210" yWindow="450" windowWidth="21720" windowHeight="9900"/>
   </bookViews>
   <sheets>
-    <sheet name="sex2" sheetId="1" r:id="rId1"/>
-    <sheet name="sex" sheetId="2" r:id="rId2"/>
+    <sheet name="sex" sheetId="2" r:id="rId1"/>
+    <sheet name="sex2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
-  <si>
-    <t>Males</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>NAME</t>
   </si>
@@ -60,9 +57,6 @@
   </si>
   <si>
     <t>William</t>
-  </si>
-  <si>
-    <t>Females</t>
   </si>
   <si>
     <t>Alice</t>
@@ -102,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="########0"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
@@ -129,17 +123,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -148,6 +139,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -217,19 +213,19 @@
         </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cmpd="sng" algn="ctr" w="9525" cap="flat">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln cmpd="sng" algn="ctr" w="25400" cap="flat">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln cmpd="sng" algn="ctr" w="38100" cap="flat">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -267,307 +263,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0" enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="10" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1">
+    <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="12" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" ht="12" customHeight="1">
-      <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3">
+    </row>
+    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" ht="12" customHeight="1">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="12" customHeight="1">
-      <c r="A6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3">
+    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="12" customHeight="1">
-      <c r="A7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" ht="12" customHeight="1">
-      <c r="A8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3">
+    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="12" customHeight="1">
-      <c r="A9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" ht="12" customHeight="1">
-      <c r="A10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" ht="12" customHeight="1">
-      <c r="A11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" ht="12" customHeight="1">
-      <c r="A12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" ht="12" customHeight="1">
-      <c r="A13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" ht="10" customHeight="1"/>
+    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup paperSize="1" fitToWidth="1" fitToHeight="1" scale="100" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0" enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="10" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1">
+    <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="12" customHeight="1">
-      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" ht="12" customHeight="1">
-      <c r="A4" s="0" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
         <v>16</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3">
+    </row>
+    <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" ht="12" customHeight="1">
-      <c r="A5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="12" customHeight="1">
-      <c r="A6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" ht="12" customHeight="1">
-      <c r="A7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="12" customHeight="1">
-      <c r="A8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="12" customHeight="1">
-      <c r="A9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" ht="12" customHeight="1">
-      <c r="A10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" ht="12" customHeight="1">
-      <c r="A11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" ht="12" customHeight="1">
-      <c r="A12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="10" customHeight="1"/>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup paperSize="1" fitToWidth="1" fitToHeight="1" scale="100" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>